--- a/test_model.xlsx
+++ b/test_model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arno\Desktop\Masterproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEFC185-C8DF-4F36-AA84-A43D07602557}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F6767-DA59-4290-8B65-E942732968A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{325EDB59-2489-4B1D-995F-5FE52782B2B8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>rpm</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>10x-30=rpm</t>
+  </si>
+  <si>
+    <t>15/2x-5</t>
+  </si>
+  <si>
+    <t>watt</t>
   </si>
 </sst>
 </file>
@@ -1395,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E650AC6-D96C-443B-9767-728174022B2D}">
-  <dimension ref="G3:M16"/>
+  <dimension ref="G3:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1415,7 @@
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>40</v>
       </c>
@@ -1443,19 +1452,28 @@
         <v>30</v>
       </c>
       <c r="L4">
-        <f>I4</f>
+        <f t="shared" ref="L4:L15" si="2">I4</f>
         <v>7.161972439112021</v>
       </c>
       <c r="M4">
         <v>40</v>
       </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>45</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H16" si="2">G5*0.10471975512</f>
+        <f t="shared" ref="H5:H16" si="3">G5*0.10471975512</f>
         <v>4.7123889804000001</v>
       </c>
       <c r="I5">
@@ -1467,19 +1485,25 @@
         <v>37.5</v>
       </c>
       <c r="L5">
-        <f>I5</f>
+        <f t="shared" si="2"/>
         <v>7.9577471545689127</v>
       </c>
       <c r="M5">
         <v>45</v>
       </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2359877560000001</v>
       </c>
       <c r="I6">
@@ -1491,19 +1515,28 @@
         <v>45</v>
       </c>
       <c r="L6">
-        <f>I6</f>
+        <f t="shared" si="2"/>
         <v>8.5943669269344252</v>
       </c>
       <c r="M6">
         <v>50</v>
       </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>55</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7595865315999992</v>
       </c>
       <c r="I7">
@@ -1515,19 +1548,19 @@
         <v>52.5</v>
       </c>
       <c r="L7">
-        <f>I7</f>
+        <f t="shared" si="2"/>
         <v>9.1152376497789369</v>
       </c>
       <c r="M7">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>60</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2831853071999992</v>
       </c>
       <c r="I8">
@@ -1539,19 +1572,28 @@
         <v>60</v>
       </c>
       <c r="L8">
-        <f>I8</f>
+        <f t="shared" si="2"/>
         <v>9.549296585482697</v>
       </c>
       <c r="M8">
         <v>60</v>
       </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>65</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.8067840827999992</v>
       </c>
       <c r="I9">
@@ -1563,19 +1605,29 @@
         <v>67.5</v>
       </c>
       <c r="L9">
-        <f>I9</f>
+        <f t="shared" si="2"/>
         <v>9.9165772233858771</v>
       </c>
       <c r="M9">
         <v>65</v>
       </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>95</v>
+      </c>
+      <c r="R9">
+        <f>P9*Q9* 0.10467</f>
+        <v>119.32380000000001</v>
+      </c>
     </row>
-    <row r="10" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>70</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3303828583999993</v>
       </c>
       <c r="I10">
@@ -1586,19 +1638,19 @@
         <v>75</v>
       </c>
       <c r="L10">
-        <f>I10</f>
+        <f t="shared" si="2"/>
         <v>10.23138919873146</v>
       </c>
       <c r="M10">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>75</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8539816339999993</v>
       </c>
       <c r="I11">
@@ -1610,91 +1662,99 @@
         <v>87.5</v>
       </c>
       <c r="L11">
-        <f>I11</f>
+        <f t="shared" si="2"/>
         <v>11.140846016396479</v>
       </c>
       <c r="M11">
         <v>75</v>
       </c>
+      <c r="P11">
+        <f>-90/2+60</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>80</v>
       </c>
       <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3775804096000002</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I14" si="4">J12/H12</f>
+        <v>11.936620731853369</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J15" si="5">J11+12.5</f>
+        <v>100</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>8.3775804096000002</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I15" si="3">J12/H12</f>
-        <v>11.936620731853369</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J16" si="4">J11+12.5</f>
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <f>I12</f>
         <v>11.936620731853369</v>
       </c>
       <c r="M12">
         <v>80</v>
       </c>
+      <c r="P12">
+        <f>MIN(P11,MAX(0,-6*(8.5-22)))</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>85</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9011791852000002</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>12.638774892550625</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>112.5</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="2"/>
-        <v>8.9011791852000002</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>12.638774892550625</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>112.5</v>
-      </c>
-      <c r="L13">
-        <f>I13</f>
         <v>12.638774892550625</v>
       </c>
       <c r="M13">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>90</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4247779608000002</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>13.262911924281521</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
-        <v>9.4247779608000002</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>13.262911924281521</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="L14">
-        <f>I14</f>
         <v>13.262911924281521</v>
       </c>
       <c r="M14">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>95</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9483767364000002</v>
       </c>
       <c r="I15">
@@ -1702,23 +1762,23 @@
         <v>13.821350321093375</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137.5</v>
       </c>
       <c r="L15">
-        <f>I15</f>
+        <f t="shared" si="2"/>
         <v>13.821350321093375</v>
       </c>
       <c r="M15">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>100</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.471975512</v>
       </c>
       <c r="I16">
